--- a/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3290653148688233</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3036733319881514</v>
+        <v>0.3036733319881515</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1512014068696502</v>
+        <v>0.1512179401793807</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2206944877376552</v>
+        <v>0.2188131381785808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2205713618466787</v>
+        <v>0.2205966862112763</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2074003899188337</v>
+        <v>0.2084375071860677</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.159688203933544</v>
+        <v>0.1630971682042691</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2693616175833311</v>
+        <v>0.2671237533841261</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3257426300657434</v>
+        <v>0.3256790750728525</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3159715423673602</v>
+        <v>0.3140121586725265</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1718099359402251</v>
+        <v>0.1713376238279081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2551681119479406</v>
+        <v>0.2600406907550271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2872488126026899</v>
+        <v>0.291167532238678</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2742018934731564</v>
+        <v>0.2728597591205715</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2496068758416044</v>
+        <v>0.2518712853761612</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3354729954404683</v>
+        <v>0.3257333515751932</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3296802685677272</v>
+        <v>0.3341325856841206</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2971362287258877</v>
+        <v>0.3021403951949241</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2584853605087567</v>
+        <v>0.2713029416294614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3896818974786244</v>
+        <v>0.3830928358546473</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4442473761480399</v>
+        <v>0.4471703184680674</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4016378657444503</v>
+        <v>0.4009455803942765</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.241733953567884</v>
+        <v>0.2387773796301768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3375441336349247</v>
+        <v>0.3360039902081332</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3688758029146635</v>
+        <v>0.3691966548335595</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3361282858718947</v>
+        <v>0.3363718189970542</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1945442550330199</v>
+        <v>0.1979011616483036</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07181475550009266</v>
+        <v>0.07027065198819231</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.100493886415352</v>
+        <v>0.09824685453188767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08163204790432393</v>
+        <v>0.08035470573393619</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2984360010755824</v>
+        <v>0.2939291310709653</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1482089409861671</v>
+        <v>0.1514800209196759</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1542595344124958</v>
+        <v>0.1536955387984719</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1590155034017145</v>
+        <v>0.1579707099395614</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2596463295943431</v>
+        <v>0.2551444721333381</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1177072325900968</v>
+        <v>0.1197570596816497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1353561067342924</v>
+        <v>0.1348022474370042</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1279482049422239</v>
+        <v>0.1288359389939474</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2744570387767171</v>
+        <v>0.2777437476767638</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1315415148404267</v>
+        <v>0.1277417396730084</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1584176372767356</v>
+        <v>0.1594419754697588</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1417284783825345</v>
+        <v>0.1410761608030515</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3765305176887033</v>
+        <v>0.3745759191034004</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2181471667740818</v>
+        <v>0.2191638428966348</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2281495032026554</v>
+        <v>0.2273993281674518</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2154959468146148</v>
+        <v>0.2159349727337186</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3156497294547582</v>
+        <v>0.3120540118658452</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1643830703050478</v>
+        <v>0.1633820594285686</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1828618361874931</v>
+        <v>0.1848547558434291</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1699436777453612</v>
+        <v>0.1732658765302871</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08095755688985821</v>
+        <v>0.07886275550107071</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.113764356290141</v>
+        <v>0.1126840885619365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1657693823146551</v>
+        <v>0.1690602908324924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1239314885027399</v>
+        <v>0.1249622652103289</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1669934869020841</v>
+        <v>0.1679772748483946</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1602478867375289</v>
+        <v>0.1594891948216839</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1953570084897805</v>
+        <v>0.2030248398727232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1407367743352888</v>
+        <v>0.140558805969081</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1350836150633082</v>
+        <v>0.1339020694677711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1504253497935872</v>
+        <v>0.1495009252022347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1985150497812994</v>
+        <v>0.1954217024818316</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1422050681192272</v>
+        <v>0.1438913052064306</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1573411881430728</v>
+        <v>0.1531659018814543</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1954339218391051</v>
+        <v>0.1969128283434617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2537440710599605</v>
+        <v>0.2531513707451985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1972772726390197</v>
+        <v>0.1978867428480948</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2589763814148691</v>
+        <v>0.2583276072467824</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2513523763080104</v>
+        <v>0.2484965758046342</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.290864400951841</v>
+        <v>0.2923882306504563</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2035577183109064</v>
+        <v>0.2034981102249479</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1940851254566089</v>
+        <v>0.1895413253346942</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2091118155245785</v>
+        <v>0.2070099062187502</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2631458257740862</v>
+        <v>0.2582438528334888</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1913001817494792</v>
+        <v>0.1900221154653181</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1064850457558052</v>
+        <v>0.1036298995271913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1472952052736327</v>
+        <v>0.1512995444515463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1651982747130548</v>
+        <v>0.1641617453911671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1336245877107385</v>
+        <v>0.1332866594681966</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2271407384976454</v>
+        <v>0.2270023612890787</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3416936803261746</v>
+        <v>0.3402462510155578</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.227091194321691</v>
+        <v>0.226003699244348</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1799585077846766</v>
+        <v>0.178282166117447</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.175800541565763</v>
+        <v>0.1770395591378158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2571375636327102</v>
+        <v>0.2599247220916454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2082886762682965</v>
+        <v>0.2105417008998463</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1690088578079367</v>
+        <v>0.1664891511262284</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1784107671398006</v>
+        <v>0.1787604933016671</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2349414720009312</v>
+        <v>0.2313283506084108</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2502782209353747</v>
+        <v>0.2506894959843304</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2222055094973012</v>
+        <v>0.2320671954678739</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3152582966001518</v>
+        <v>0.3190745267485416</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4422437320789863</v>
+        <v>0.4392288858959815</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3205768696639906</v>
+        <v>0.3183178856088277</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2597490924193601</v>
+        <v>0.258109782331438</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.232658552573264</v>
+        <v>0.2362355736884831</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3236260917136762</v>
+        <v>0.3272751614361605</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2737329962748161</v>
+        <v>0.2763567376147313</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2329135328708462</v>
+        <v>0.2279466216139579</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2747352862754885</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5067759731952203</v>
+        <v>0.5067759731952202</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3913163126178826</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.272062843456223</v>
+        <v>0.276738453499952</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.112964222948348</v>
+        <v>0.1128910732231121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.165029560837146</v>
+        <v>0.1651926138941892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3067125313608808</v>
+        <v>0.3069462841383342</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3777829000022487</v>
+        <v>0.3805309340048392</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2702828301220555</v>
+        <v>0.2592733691809333</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2217974364336115</v>
+        <v>0.219514533949195</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4584496206536742</v>
+        <v>0.4578671058033073</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3435868663813581</v>
+        <v>0.3442982699182067</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.205920916936493</v>
+        <v>0.2060950068159788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2042876956212462</v>
+        <v>0.2047586351732341</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4024310639108011</v>
+        <v>0.4046811223529183</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4067010034997312</v>
+        <v>0.4089353101392997</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2143779290997211</v>
+        <v>0.2169486036736874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2758936217160561</v>
+        <v>0.271056421568313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4258607983603856</v>
+        <v>0.4229825410717145</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5176379347446087</v>
+        <v>0.5157175903661804</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4008172944154072</v>
+        <v>0.3915008858996802</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.339955788922902</v>
+        <v>0.341612832732077</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5539868978377461</v>
+        <v>0.5521538692262508</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4399248924113698</v>
+        <v>0.4383748695323353</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2923484980367327</v>
+        <v>0.2914184435834261</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2863318247923088</v>
+        <v>0.2868365410315769</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4796322700601698</v>
+        <v>0.4809030883184272</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.181663343413788</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.158158500018534</v>
+        <v>0.1581585000185339</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2017567006145036</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0903215959824535</v>
+        <v>0.09351296717199568</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1088419373197668</v>
+        <v>0.1090396505306144</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09075622738372593</v>
+        <v>0.08999176208305168</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.129012814515945</v>
+        <v>0.1262513390187577</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2281921857343601</v>
+        <v>0.2271068258260302</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1337166345341805</v>
+        <v>0.1337297332980324</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1389177088015195</v>
+        <v>0.1371653604999239</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1272074867965667</v>
+        <v>0.1275536062825034</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1679103087751783</v>
+        <v>0.1719829331453295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1293333335360771</v>
+        <v>0.1322665493812237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.125219924600478</v>
+        <v>0.1249216013858407</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.134990564128882</v>
+        <v>0.1363796889691796</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1707591519291221</v>
+        <v>0.1686635801655536</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1957422213881168</v>
+        <v>0.1961730684776921</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1723814894646658</v>
+        <v>0.1736528097980787</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2032168960537829</v>
+        <v>0.2016194949873913</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3357435677108795</v>
+        <v>0.3289075701258173</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2231982835780469</v>
+        <v>0.2236027080313585</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2353564391262889</v>
+        <v>0.2380532386568611</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.192652605998938</v>
+        <v>0.1937561547182154</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2356079294831632</v>
+        <v>0.2409454533859068</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1952002741566193</v>
+        <v>0.1923770361114456</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1899298500820085</v>
+        <v>0.1890372254352954</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1845836569099937</v>
+        <v>0.1842287292400984</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07983566529559646</v>
+        <v>0.08157375410942776</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1720429151672504</v>
+        <v>0.1746994854932447</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1386314418808213</v>
+        <v>0.1347511999436495</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.164506574992787</v>
+        <v>0.1627873494635859</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1988283147558544</v>
+        <v>0.1980937020166763</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2253028927070797</v>
+        <v>0.2269680640543912</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2083665261845963</v>
+        <v>0.2092391057169997</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2419672048236632</v>
+        <v>0.2421374179848445</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.146222910924929</v>
+        <v>0.145933355112042</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2091369056241597</v>
+        <v>0.2089217486608476</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1811902504839079</v>
+        <v>0.1833657536587273</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.21045718857478</v>
+        <v>0.2123302383571164</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1278354326358646</v>
+        <v>0.1300105673866949</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2368993181658188</v>
+        <v>0.2438842832567411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1982184715028875</v>
+        <v>0.196619158706887</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2278153180760031</v>
+        <v>0.2316603383783845</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2617483226669178</v>
+        <v>0.2632077517588625</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2967034448796788</v>
+        <v>0.2945532330672761</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2742070775181468</v>
+        <v>0.2768857513715362</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3000001242581861</v>
+        <v>0.3020037292465088</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1879125402686911</v>
+        <v>0.1890634786225265</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2576121648566507</v>
+        <v>0.2584802104722474</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2293861776431711</v>
+        <v>0.2290898297388816</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2579097062808248</v>
+        <v>0.2577125831980441</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2599436264793443</v>
+        <v>0.2593217574254697</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1470686660222802</v>
+        <v>0.146574452584952</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05682919628224931</v>
+        <v>0.05604770074521747</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08551509819951748</v>
+        <v>0.0848493009061306</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3417183254072678</v>
+        <v>0.3411190378002</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2097320285252941</v>
+        <v>0.2048606891842787</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1132650535801965</v>
+        <v>0.1129912579993659</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1552865373023104</v>
+        <v>0.1567244541035256</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3104238134219706</v>
+        <v>0.3083650736282079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1860956203944978</v>
+        <v>0.1871789483936122</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08988423984113489</v>
+        <v>0.09034103992668611</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1268687010113198</v>
+        <v>0.1273903468396246</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.324016604814616</v>
+        <v>0.3277907997657993</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2029814756013867</v>
+        <v>0.2060175075957699</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09480485617668219</v>
+        <v>0.0940036717621338</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1285634488952275</v>
+        <v>0.1255161372524682</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.411073315855461</v>
+        <v>0.4117843452213006</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2706241533627092</v>
+        <v>0.268625603655429</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1625006976962059</v>
+        <v>0.1623553812852496</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1996022650128454</v>
+        <v>0.201171520417241</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3597874386858845</v>
+        <v>0.3586354514029758</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2276963014620672</v>
+        <v>0.2320264664075072</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1213146883752741</v>
+        <v>0.1228087447423834</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1586958779586066</v>
+        <v>0.1596268598812534</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.2223697143628612</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2349905607586451</v>
+        <v>0.234990560758645</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2466719620614174</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1816660693315169</v>
+        <v>0.1821493220698914</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1592730090497267</v>
+        <v>0.1608513915497739</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1442578254292659</v>
+        <v>0.1437903345558722</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1563832505834706</v>
+        <v>0.1563614991262845</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2812170173402015</v>
+        <v>0.2819448323821211</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2395698194734139</v>
+        <v>0.2397868117507382</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2076007313364292</v>
+        <v>0.2074978752173483</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2242599034128766</v>
+        <v>0.2237530310286292</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2362371159783664</v>
+        <v>0.23715179082099</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2047466180348687</v>
+        <v>0.2035319374674874</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1811299271998177</v>
+        <v>0.1808112718923943</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1935521627104187</v>
+        <v>0.1925966023288771</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2098397559571636</v>
+        <v>0.2100476410255603</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1856570826350928</v>
+        <v>0.1887575038860891</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.168820043499492</v>
+        <v>0.1697306312295102</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1822859266791844</v>
+        <v>0.1834503626429549</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3122100771467919</v>
+        <v>0.3134782816460671</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2681857289825605</v>
+        <v>0.2705963123028862</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2364165924293378</v>
+        <v>0.2372660427911459</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2474160319436267</v>
+        <v>0.2472570791389258</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2577220078275377</v>
+        <v>0.2579744135368318</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2248249234695126</v>
+        <v>0.2243289281906523</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1998001906261117</v>
+        <v>0.1999214303225476</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2105847534675592</v>
+        <v>0.2109494181635412</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>41279</v>
+        <v>41284</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65047</v>
+        <v>64493</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64578</v>
+        <v>64585</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>66129</v>
+        <v>66459</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>41653</v>
+        <v>42542</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>77373</v>
+        <v>76730</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>94043</v>
+        <v>94025</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>99866</v>
+        <v>99247</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>91720</v>
+        <v>91468</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>148504</v>
+        <v>151339</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>167029</v>
+        <v>169307</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>174092</v>
+        <v>173240</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>68145</v>
+        <v>68763</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>98877</v>
+        <v>96006</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>96522</v>
+        <v>97825</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>94740</v>
+        <v>96336</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>67423</v>
+        <v>70766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>111934</v>
+        <v>110042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>128256</v>
+        <v>129099</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>126942</v>
+        <v>126723</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>129049</v>
+        <v>127471</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>196445</v>
+        <v>195549</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>214493</v>
+        <v>214679</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>213410</v>
+        <v>213564</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>95925</v>
+        <v>97580</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36304</v>
+        <v>35524</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50391</v>
+        <v>49264</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43318</v>
+        <v>42640</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>150397</v>
+        <v>148125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>77039</v>
+        <v>78740</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>80359</v>
+        <v>80065</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>86901</v>
+        <v>86330</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>258874</v>
+        <v>254385</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>120689</v>
+        <v>122790</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>138383</v>
+        <v>137816</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>137818</v>
+        <v>138774</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>135328</v>
+        <v>136948</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>66498</v>
+        <v>64577</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>79435</v>
+        <v>79949</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>75208</v>
+        <v>74862</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>189752</v>
+        <v>188767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>113393</v>
+        <v>113922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>118850</v>
+        <v>118459</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>117767</v>
+        <v>118007</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>314710</v>
+        <v>311125</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>168547</v>
+        <v>167520</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>186951</v>
+        <v>188988</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>183053</v>
+        <v>186632</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25813</v>
+        <v>25145</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36865</v>
+        <v>36515</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>52808</v>
+        <v>53857</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39039</v>
+        <v>39364</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>56012</v>
+        <v>56342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>54648</v>
+        <v>54389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>65326</v>
+        <v>67890</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49865</v>
+        <v>49802</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>88380</v>
+        <v>87607</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>100043</v>
+        <v>99428</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>129622</v>
+        <v>127602</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>95181</v>
+        <v>96310</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50168</v>
+        <v>48836</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63330</v>
+        <v>63809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80834</v>
+        <v>80645</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62144</v>
+        <v>62336</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>86864</v>
+        <v>86646</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>85716</v>
+        <v>84742</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>97263</v>
+        <v>97773</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>72124</v>
+        <v>72103</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>126982</v>
+        <v>124009</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>139073</v>
+        <v>137675</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>171823</v>
+        <v>168623</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>128041</v>
+        <v>127186</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38193</v>
+        <v>37169</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54944</v>
+        <v>56437</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>61117</v>
+        <v>60734</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>49861</v>
+        <v>49735</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>84373</v>
+        <v>84321</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>132902</v>
+        <v>132339</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>87748</v>
+        <v>87328</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75737</v>
+        <v>75031</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>128357</v>
+        <v>129261</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>195931</v>
+        <v>198054</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>157542</v>
+        <v>159247</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>134194</v>
+        <v>132193</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63991</v>
+        <v>64116</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>87637</v>
+        <v>86289</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>92594</v>
+        <v>92746</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82915</v>
+        <v>86595</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>117105</v>
+        <v>118522</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>172011</v>
+        <v>170839</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>123872</v>
+        <v>122999</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>109317</v>
+        <v>108628</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>169870</v>
+        <v>172482</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>246593</v>
+        <v>249373</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>207042</v>
+        <v>209027</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>184934</v>
+        <v>180990</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55313</v>
+        <v>56263</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24018</v>
+        <v>24003</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>34858</v>
+        <v>34892</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>63080</v>
+        <v>63128</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>78453</v>
+        <v>79024</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>59352</v>
+        <v>56934</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>48482</v>
+        <v>47983</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>103953</v>
+        <v>103821</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>141206</v>
+        <v>141498</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>89001</v>
+        <v>89076</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>87804</v>
+        <v>88007</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>174017</v>
+        <v>174990</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>82686</v>
+        <v>83140</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>45581</v>
+        <v>46127</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>58275</v>
+        <v>57253</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>87585</v>
+        <v>86993</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>107497</v>
+        <v>107098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>88016</v>
+        <v>85970</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>74310</v>
+        <v>74672</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>125616</v>
+        <v>125200</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>180799</v>
+        <v>180162</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>126356</v>
+        <v>125954</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>123068</v>
+        <v>123285</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>207400</v>
+        <v>207949</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24460</v>
+        <v>25324</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>29821</v>
+        <v>29875</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>23880</v>
+        <v>23679</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>34925</v>
+        <v>34177</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>63470</v>
+        <v>63168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>37318</v>
+        <v>37321</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>37941</v>
+        <v>37462</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>33551</v>
+        <v>33642</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>92175</v>
+        <v>94411</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>71529</v>
+        <v>73151</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>67148</v>
+        <v>66988</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>72147</v>
+        <v>72889</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46243</v>
+        <v>45676</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>53630</v>
+        <v>53748</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>45358</v>
+        <v>45692</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>55012</v>
+        <v>54580</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>93385</v>
+        <v>91484</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>62290</v>
+        <v>62403</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>64279</v>
+        <v>65016</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>50812</v>
+        <v>51103</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>129338</v>
+        <v>132268</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>107958</v>
+        <v>106396</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>101848</v>
+        <v>101369</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>98652</v>
+        <v>98462</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>49101</v>
+        <v>50170</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>114028</v>
+        <v>115789</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>91020</v>
+        <v>88472</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>118393</v>
+        <v>117156</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>126896</v>
+        <v>126427</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>156106</v>
+        <v>157260</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>143778</v>
+        <v>144380</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>186812</v>
+        <v>186944</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>183253</v>
+        <v>182890</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>283518</v>
+        <v>283227</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>243987</v>
+        <v>246917</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>313948</v>
+        <v>316742</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>78622</v>
+        <v>79960</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>157014</v>
+        <v>161644</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>130142</v>
+        <v>129092</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>163956</v>
+        <v>166723</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>167053</v>
+        <v>167984</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>205577</v>
+        <v>204087</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>189209</v>
+        <v>191058</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>231617</v>
+        <v>233164</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>235501</v>
+        <v>236943</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>349234</v>
+        <v>350411</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>308887</v>
+        <v>308488</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>384735</v>
+        <v>384441</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>193345</v>
+        <v>192882</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>114277</v>
+        <v>113893</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>44134</v>
+        <v>43527</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>68247</v>
+        <v>67716</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>267740</v>
+        <v>267271</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>172565</v>
+        <v>168557</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>93576</v>
+        <v>93350</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>129095</v>
+        <v>130290</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>474112</v>
+        <v>470968</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>297719</v>
+        <v>299452</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>144064</v>
+        <v>144796</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>206720</v>
+        <v>207570</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>241002</v>
+        <v>243809</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>157723</v>
+        <v>160082</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>73626</v>
+        <v>73004</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>102603</v>
+        <v>100171</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>322080</v>
+        <v>322638</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>222667</v>
+        <v>221022</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>134253</v>
+        <v>134133</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>165936</v>
+        <v>167240</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>549506</v>
+        <v>547746</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>364273</v>
+        <v>371200</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>194440</v>
+        <v>196835</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>258580</v>
+        <v>260096</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>595237</v>
+        <v>596820</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>545310</v>
+        <v>550714</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>489069</v>
+        <v>487484</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>552310</v>
+        <v>552233</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>950288</v>
+        <v>952747</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>850796</v>
+        <v>851567</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>734558</v>
+        <v>734194</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>836852</v>
+        <v>834961</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1572333</v>
+        <v>1578421</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1428127</v>
+        <v>1419654</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1254970</v>
+        <v>1252762</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1405845</v>
+        <v>1398904</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>687549</v>
+        <v>688230</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>635643</v>
+        <v>646258</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>572340</v>
+        <v>575428</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>643793</v>
+        <v>647905</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1055019</v>
+        <v>1059305</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>952421</v>
+        <v>960982</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>836518</v>
+        <v>839524</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>923262</v>
+        <v>922669</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1715331</v>
+        <v>1717011</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1568175</v>
+        <v>1564715</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1384328</v>
+        <v>1385168</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1529559</v>
+        <v>1532208</v>
       </c>
     </row>
     <row r="40">
